--- a/GranBlueFantasy_And_OtherCygame_Support_Dll/package/LangMod/CN/Dialog/Drama/Vajra.xlsx
+++ b/GranBlueFantasy_And_OtherCygame_Support_Dll/package/LangMod/CN/Dialog/Drama/Vajra.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="139">
   <si>
     <t>step</t>
   </si>
@@ -62,6 +62,9 @@
     <t>text_EN</t>
   </si>
   <si>
+    <t>text_CN</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -170,7 +173,16 @@
     <t>我这里最近听到不少的传闻，团长，你想聊什么呢</t>
   </si>
   <si>
-    <t>choice/rumor</t>
+    <t>_news</t>
+  </si>
+  <si>
+    <t>何か新しい情報はありますか？</t>
+  </si>
+  <si>
+    <t>Any new information?</t>
+  </si>
+  <si>
+    <t>有新情报吗？</t>
   </si>
   <si>
     <t>団長、そんなに暇なら手伝ってくれませんか？</t>
@@ -1552,12 +1564,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
@@ -1571,11 +1583,11 @@
     <col min="8" max="8" width="6.88888888888889" style="2" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="3.55555555555556" style="2" customWidth="1"/>
     <col min="10" max="10" width="51.2222222222222" style="2" customWidth="1"/>
-    <col min="11" max="12" width="47" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="7.33333333333333" style="2" hidden="1"/>
+    <col min="11" max="13" width="47" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="7.33333333333333" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1611,822 +1623,933 @@
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" s="2">
         <f>MAX(I5:I1048353)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="2:12">
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="7:12">
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="7:13">
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
+        <v>27</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="I14" s="2">
         <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="5:6">
       <c r="E15" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="5:5">
       <c r="E16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="5:5">
       <c r="E17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1"/>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1"/>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="7:12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13">
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I24" s="2">
         <v>4</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5">
+        <v>47</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E26" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="I26" s="2">
+        <v>30</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1" spans="5:5">
       <c r="E27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1"/>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="7:12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="7:13">
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I31" s="2">
         <v>5</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="17" customHeight="1" spans="5:5">
       <c r="E32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1"/>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="7:12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="7:13">
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" s="2">
         <v>6</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="7:12">
+        <v>57</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="7:13">
       <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I37" s="2">
         <v>7</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" ht="17.25" spans="7:12">
+        <v>60</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="7:13">
       <c r="G38" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" s="2">
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
+        <v>63</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I40" s="2">
         <v>9</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12">
+        <v>67</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I41" s="2">
         <v>10</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12">
+        <v>70</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I42" s="2">
         <v>11</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12">
+        <v>74</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I43" s="2">
         <v>12</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1"/>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="7:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="7:13">
       <c r="G48" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I48" s="2">
         <v>13</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="7:12">
+        <v>82</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="7:13">
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I49" s="2">
         <v>14</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="7:12">
+        <v>85</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="7:13">
       <c r="G50" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I50" s="2">
         <v>15</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="7:12">
+        <v>88</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="7:13">
       <c r="G51" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I51" s="2">
         <v>17</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
+        <v>91</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
       <c r="B53" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I53" s="2">
         <v>16</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1"/>
     <row r="55" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="7:12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="7:13">
       <c r="G60" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I60" s="2">
         <v>18</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="7:12">
+        <v>100</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="7:13">
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I61" s="2">
         <v>19</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="7:12">
+        <v>103</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="7:13">
       <c r="G62" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I62" s="2">
         <v>20</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="7:12">
+        <v>106</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="7:13">
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I63" s="2">
         <v>21</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="7:12">
+        <v>109</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="7:13">
       <c r="G64" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I64" s="2">
         <v>22</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="7:12">
+        <v>112</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="7:13">
       <c r="G65" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I65" s="2">
         <v>23</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="7:12">
+        <v>115</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="7:13">
       <c r="G66" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I66" s="2">
         <v>24</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="9:12">
+        <v>118</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="9:13">
       <c r="I67" s="2">
         <v>25</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="9:12">
+        <v>121</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="9:13">
       <c r="I68" s="2">
         <v>26</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13">
       <c r="B75" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I75" s="2">
         <v>27</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1"/>
     <row r="77" spans="1:1">
       <c r="A77" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="9:12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="9:13">
       <c r="I78" s="2">
         <v>28</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" spans="5:5">
       <c r="E80" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
       <c r="B81" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I81" s="2">
         <v>29</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1"/>

--- a/GranBlueFantasy_And_OtherCygame_Support_Dll/package/LangMod/CN/Dialog/Drama/Vajra.xlsx
+++ b/GranBlueFantasy_And_OtherCygame_Support_Dll/package/LangMod/CN/Dialog/Drama/Vajra.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="140">
   <si>
     <t>step</t>
   </si>
@@ -80,118 +80,121 @@
     <t>Vajra_talk</t>
   </si>
   <si>
+    <t>reload</t>
+  </si>
+  <si>
+    <t>real_main</t>
+  </si>
+  <si>
+    <t>Vajra</t>
+  </si>
+  <si>
+    <t>団長、何かご用ですか？</t>
+  </si>
+  <si>
+    <t>Captain, did you need something?</t>
+  </si>
+  <si>
+    <t>团长，找我有什么事吗？</t>
+  </si>
+  <si>
+    <t>Vajra_chat</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>*雑談*</t>
+  </si>
+  <si>
+    <t>*Chat*</t>
+  </si>
+  <si>
+    <t>*闲聊*</t>
+  </si>
+  <si>
+    <t>Vajra_mission</t>
+  </si>
+  <si>
+    <t>*クエスト*</t>
+  </si>
+  <si>
+    <t>*Quest*</t>
+  </si>
+  <si>
+    <t>*任务*</t>
+  </si>
+  <si>
+    <t>inject</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>choice/buy</t>
+  </si>
+  <si>
+    <t>choice/bye</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>Vajra_mission_check</t>
+  </si>
+  <si>
+    <t>最近ここで色々な噂を聞きましたよ、団長。何を話したいですか？</t>
+  </si>
+  <si>
+    <t>I’ve been hearing quite a few rumors lately, Captain. What would you like to talk about?</t>
+  </si>
+  <si>
+    <t>我这里最近听到不少的传闻，团长，你想聊什么呢</t>
+  </si>
+  <si>
+    <t>_news</t>
+  </si>
+  <si>
+    <t>何か新しい情報はありますか？</t>
+  </si>
+  <si>
+    <t>Any new information?</t>
+  </si>
+  <si>
+    <t>有新情报吗？</t>
+  </si>
+  <si>
+    <t>団長、そんなに暇なら手伝ってくれませんか？</t>
+  </si>
+  <si>
+    <t>Captain, since you’re free, how about helping me with something?</t>
+  </si>
+  <si>
+    <t>团长，这么有空，来帮我个忙呗。</t>
+  </si>
+  <si>
+    <t>Vajra_InPartyMission</t>
+  </si>
+  <si>
     <t>i*</t>
   </si>
   <si>
-    <t>if_flag(VajraTalk, &lt;=0)</t>
+    <t>and(if_flag(VajraTalk, &gt;0), if_flag(VajraInPartyMission, &lt;=0))</t>
   </si>
   <si>
     <t>pc</t>
   </si>
   <si>
-    <t>Vajra_InPartyMission</t>
-  </si>
-  <si>
-    <t>and(if_flag(VajraTalk, &gt;0), if_flag(VajraInPartyMission, &lt;=0))</t>
-  </si>
-  <si>
     <t>Vajra_InPartyMission_continue</t>
   </si>
   <si>
     <t>and(if_flag(VajraInPartyMission, &gt;0), if_flag(VajraInParty, &lt;=0))</t>
   </si>
   <si>
-    <t>Vajra</t>
-  </si>
-  <si>
-    <t>団長、何かご用ですか？</t>
-  </si>
-  <si>
-    <t>Captain, did you need something?</t>
-  </si>
-  <si>
-    <t>团长，找我有什么事吗？</t>
-  </si>
-  <si>
-    <t>Vajra_chat</t>
-  </si>
-  <si>
-    <t>choice</t>
-  </si>
-  <si>
-    <t>*雑談*</t>
-  </si>
-  <si>
-    <t>*Chat*</t>
-  </si>
-  <si>
-    <t>*闲聊*</t>
-  </si>
-  <si>
-    <t>Vajra_mission</t>
-  </si>
-  <si>
-    <t>*クエスト*</t>
-  </si>
-  <si>
-    <t>*Quest*</t>
-  </si>
-  <si>
-    <t>*任务*</t>
-  </si>
-  <si>
-    <t>inject</t>
-  </si>
-  <si>
-    <t>Unique</t>
-  </si>
-  <si>
-    <t>choice/buy</t>
-  </si>
-  <si>
-    <t>choice/bye</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>cancel</t>
-  </si>
-  <si>
-    <t>Vajra_mission_check</t>
-  </si>
-  <si>
-    <t>reload</t>
-  </si>
-  <si>
-    <t>最近ここで色々な噂を聞きましたよ、団長。何を話したいですか？</t>
-  </si>
-  <si>
-    <t>I’ve been hearing quite a few rumors lately, Captain. What would you like to talk about?</t>
-  </si>
-  <si>
-    <t>我这里最近听到不少的传闻，团长，你想聊什么呢</t>
-  </si>
-  <si>
-    <t>_news</t>
-  </si>
-  <si>
-    <t>何か新しい情報はありますか？</t>
-  </si>
-  <si>
-    <t>Any new information?</t>
-  </si>
-  <si>
-    <t>有新情报吗？</t>
-  </si>
-  <si>
-    <t>団長、そんなに暇なら手伝ってくれませんか？</t>
-  </si>
-  <si>
-    <t>Captain, since you’re free, how about helping me with something?</t>
-  </si>
-  <si>
-    <t>团长，这么有空，来帮我个忙呗。</t>
+    <t>if_flag(VajraTalk, &gt;0)</t>
   </si>
   <si>
     <t>「んふふ～」</t>
@@ -820,13 +823,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,7 +1171,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,7 +1195,7 @@
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,19 +1250,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="24" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常規" xfId="0" builtinId="0"/>
@@ -1564,78 +1570,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.5481481481481" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5555555555556" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5555555555556" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.4" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.11111111111111" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.88888888888889" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="3.55555555555556" style="2" customWidth="1"/>
-    <col min="10" max="10" width="51.2222222222222" style="2" customWidth="1"/>
-    <col min="11" max="13" width="47" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="7.33333333333333" style="2" hidden="1"/>
+    <col min="1" max="2" width="25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.5481481481481" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5555555555556" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5555555555556" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.4" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.11111111111111" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.88888888888889" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="3.55555555555556" style="3" customWidth="1"/>
+    <col min="10" max="10" width="51.2222222222222" style="3" customWidth="1"/>
+    <col min="11" max="13" width="47" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="7.33333333333333" style="3" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="9:9">
-      <c r="I2" s="2">
-        <f>MAX(I5:I1048353)</f>
+      <c r="I2" s="3">
+        <f>MAX(I5:I1048359)</f>
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1645,914 +1651,942 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="7"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
+    </row>
+    <row r="11" s="1" customFormat="1"/>
+    <row r="12" s="2" customFormat="1" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="2" t="s">
+    </row>
+    <row r="13" s="2" customFormat="1"/>
+    <row r="14" s="2" customFormat="1" spans="7:13">
+      <c r="G14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="4" t="s">
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="K14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="4" t="s">
+      <c r="L14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="M14" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1"/>
+    <row r="16" s="2" customFormat="1" spans="2:13">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="7:13">
-      <c r="G11" s="2" t="s">
+      <c r="E16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="4" t="s">
+    <row r="17" s="2" customFormat="1" spans="2:13">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="2">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="5:6">
+      <c r="E18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="2">
-        <v>3</v>
-      </c>
-      <c r="J14" s="2" t="s">
+    </row>
+    <row r="19" s="3" customFormat="1" spans="5:5">
+      <c r="E19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="2" t="s">
+    </row>
+    <row r="20" s="3" customFormat="1" spans="5:5">
+      <c r="E20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="2" t="s">
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:5">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6">
-      <c r="E15" s="5" t="s">
+      <c r="E21" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="5:5">
-      <c r="E16" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="5:5">
-      <c r="E17" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1"/>
     <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1"/>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13">
+      <c r="G27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
+        <v>30</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" ht="17" customHeight="1" spans="5:5">
+      <c r="E30" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1"/>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="7:13">
-      <c r="G24" s="2" t="s">
+    <row r="34" spans="7:13">
+      <c r="G34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="3">
+        <v>5</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" ht="17" customHeight="1" spans="5:5">
+      <c r="E35" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1"/>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:7">
+      <c r="B41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="7:13">
+      <c r="G42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="3">
+        <v>6</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="7:13">
+      <c r="G43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="3">
+        <v>7</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" spans="7:13">
+      <c r="G44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="2">
-        <v>4</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="I46" s="3">
+        <v>9</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="3">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="3">
+        <v>11</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="3">
+        <v>12</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1"/>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7">
+      <c r="E52" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="7:13">
+      <c r="G54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="3">
+        <v>13</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="7:13">
+      <c r="G55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="3">
+        <v>14</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="7:13">
+      <c r="G56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="3">
+        <v>15</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="7:13">
+      <c r="G57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="3">
+        <v>17</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="3">
+        <v>16</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1"/>
+    <row r="61" spans="1:1">
+      <c r="A61" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7">
+      <c r="E62" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7">
+      <c r="E63" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7">
+      <c r="E64" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7">
+      <c r="E65" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="7:13">
+      <c r="G66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="3">
+        <v>18</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="7:13">
+      <c r="G67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" s="3">
+        <v>19</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="7:13">
+      <c r="G68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="3">
+        <v>20</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="7:13">
+      <c r="G69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="3">
+        <v>21</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="7:13">
+      <c r="G70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="3">
+        <v>22</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="7:13">
+      <c r="G71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="3">
+        <v>23</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="7:13">
+      <c r="G72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="3">
+        <v>24</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="9:13">
+      <c r="I73" s="3">
+        <v>25</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="9:13">
+      <c r="I74" s="3">
+        <v>26</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7">
+      <c r="E75" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7">
+      <c r="E76" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7">
+      <c r="E77" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7">
+      <c r="E78" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7">
+      <c r="E79" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="3">
+        <v>27</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1"/>
+    <row r="83" spans="1:1">
+      <c r="A83" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="9:13">
+      <c r="I84" s="3">
+        <v>28</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="5:5">
+      <c r="E86" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13">
+      <c r="B87" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" s="3">
         <v>29</v>
       </c>
-      <c r="I26" s="2">
-        <v>30</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" ht="17" customHeight="1" spans="5:5">
-      <c r="E27" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="7:13">
-      <c r="G31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="2">
-        <v>5</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" ht="17" customHeight="1" spans="5:5">
-      <c r="E32" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="7:13">
-      <c r="G36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="2">
-        <v>6</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="7:13">
-      <c r="G37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="2">
-        <v>7</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" ht="17.25" spans="7:13">
-      <c r="G38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="2">
-        <v>8</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="2">
-        <v>9</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="2">
-        <v>10</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="2">
-        <v>11</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="2">
-        <v>12</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7">
-      <c r="E46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="7:13">
-      <c r="G48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I48" s="2">
-        <v>13</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="7:13">
-      <c r="G49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="2">
-        <v>14</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="7:13">
-      <c r="G50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="2">
-        <v>15</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="7:13">
-      <c r="G51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" s="2">
-        <v>17</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="2">
-        <v>16</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1"/>
-    <row r="55" spans="1:1">
-      <c r="A55" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7">
-      <c r="E56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7">
-      <c r="E57" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7">
-      <c r="E58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="5:7">
-      <c r="E59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="7:13">
-      <c r="G60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I60" s="2">
-        <v>18</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="7:13">
-      <c r="G61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="2">
-        <v>19</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="7:13">
-      <c r="G62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I62" s="2">
-        <v>20</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="7:13">
-      <c r="G63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" s="2">
-        <v>21</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="7:13">
-      <c r="G64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" s="2">
-        <v>22</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="7:13">
-      <c r="G65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I65" s="2">
-        <v>23</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="7:13">
-      <c r="G66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I66" s="2">
-        <v>24</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="9:13">
-      <c r="I67" s="2">
-        <v>25</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="9:13">
-      <c r="I68" s="2">
-        <v>26</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7">
-      <c r="E69" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="5:7">
-      <c r="E70" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="5:7">
-      <c r="E71" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="5:7">
-      <c r="E72" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7">
-      <c r="E73" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13">
-      <c r="B75" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="2">
-        <v>27</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1"/>
-    <row r="77" spans="1:1">
-      <c r="A77" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="9:13">
-      <c r="I78" s="2">
-        <v>28</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" s="2" customFormat="1" spans="5:5">
-      <c r="E80" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13">
-      <c r="B81" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I81" s="2">
-        <v>29</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J87" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="K87" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M81" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1"/>
+      <c r="L87" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
